--- a/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2025.xlsx
+++ b/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2025.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Mise en place de google alerte , suivre une formation sur l'ia</t>
-  </si>
-  <si>
     <t>Tester la securité de notre site comme verifier si l'utilisateur est admin</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Mise en place du projet traceur sur l'application Opohely</t>
+  </si>
+  <si>
+    <t>Mise en place d'un flux RSS (google alerte) , suivre une formation sur l'ia</t>
   </si>
 </sst>
 </file>
@@ -607,15 +607,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,15 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -973,56 +973,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1034,10 +1034,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1060,8 +1060,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1117,16 +1117,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="19"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="17" t="s">
@@ -1408,7 +1408,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="19"/>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="19"/>
@@ -1510,7 +1510,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -1642,16 +1642,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="17" t="s">
@@ -1741,7 +1741,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="17"/>
@@ -1794,7 +1794,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="17"/>
@@ -2065,16 +2065,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="17" t="s">
@@ -2166,7 +2166,7 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -2207,9 +2207,9 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="17"/>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="17"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="17"/>
@@ -2315,7 +2315,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32"/>
@@ -2582,17 +2582,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2025.xlsx
+++ b/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2025.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\1A\modules cetif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Portfolio-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -121,21 +121,9 @@
     <t>x SLAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Projet Netflix : </t>
-  </si>
-  <si>
-    <t>repation du travail (canban)</t>
-  </si>
-  <si>
-    <t>Projet Netflix en php gestion des donnés</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Tester la securité de notre site comme verifier si l'utilisateur est admin</t>
-  </si>
-  <si>
     <t>Projet "Vidage NIR BDO"</t>
   </si>
   <si>
@@ -145,28 +133,37 @@
     <t>-</t>
   </si>
   <si>
-    <t>Realisation d'un canban pour les projets</t>
-  </si>
-  <si>
-    <t>Mise a jour LinkedIn</t>
-  </si>
-  <si>
-    <t>Enregistrement de log in en php et ajout de donnés dans la bdd, cours sur la gestion des sauvegardes</t>
-  </si>
-  <si>
-    <t>Respect des conventions de nomage de l'entreprise</t>
-  </si>
-  <si>
-    <t>Respect du chahier des charges</t>
-  </si>
-  <si>
     <t>Communication entre collègues de travail</t>
   </si>
   <si>
     <t>Mise en place du projet traceur sur l'application Opohely</t>
   </si>
   <si>
-    <t>Mise en place d'un flux RSS (google alerte) , suivre une formation sur l'ia</t>
+    <t>Répartition du travail (kanban) et utilisation d'un répertoire distant</t>
+  </si>
+  <si>
+    <t>Projet Netflix en PHP : gestion des données</t>
+  </si>
+  <si>
+    <t>Mise en place d'un flux RSS (Google Alertes) , suivre une formation sur l'IA</t>
+  </si>
+  <si>
+    <t>Enregistrement de log in en PHP et ajout de données dans la BDD, cours sur la gestion des sauvegardes</t>
+  </si>
+  <si>
+    <t>Tester la sécurité de notre site, comme vérifier si l'utilisateur est admin</t>
+  </si>
+  <si>
+    <t>Mise à jour LinkedIn</t>
+  </si>
+  <si>
+    <t>Réalisation d'un canevas pour les projets</t>
+  </si>
+  <si>
+    <t>Respect des conventions de nettoyage de l'entreprise</t>
+  </si>
+  <si>
+    <t>Respect du cahier des charges</t>
   </si>
 </sst>
 </file>
@@ -607,9 +604,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,36 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -957,10 +954,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="A26:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -973,56 +970,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1034,10 +1031,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1060,8 +1057,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1117,16 +1114,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1165,13 +1162,15 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
       <c r="I8"/>
@@ -1212,15 +1211,15 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9"/>
@@ -1261,17 +1260,17 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1308,19 +1307,19 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="H11" s="20"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1362,13 +1361,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1408,17 +1407,17 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1456,18 +1455,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="H14" s="20"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1509,9 +1504,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
@@ -1597,14 +1590,16 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1641,17 +1636,21 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1688,20 +1687,18 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1741,15 +1738,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
       <c r="I20"/>
@@ -1793,9 +1790,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -1836,16 +1831,12 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
       <c r="I22"/>
@@ -1975,14 +1966,16 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2020,9 +2013,13 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -2064,17 +2061,19 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2113,15 +2112,15 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28"/>
@@ -2161,163 +2160,48 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B29" s="21"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="H29" s="18"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-    </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
       <c r="B30" s="21"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="18"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2354,15 +2238,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2400,14 +2284,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2444,15 +2328,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2489,15 +2373,15 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -2534,9 +2418,141 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+    </row>
+    <row r="38" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+    </row>
+    <row r="39" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+    </row>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2578,21 +2594,69 @@
     <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
